--- a/20230828_stat_inclusion_tb.xlsx
+++ b/20230828_stat_inclusion_tb.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baltzingerphilippe/Documents/R studio/rstudio_repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EXTENSION_MACMI/Analyses R/rstudio_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:18001_{FAA65127-D714-3149-9B57-5FC2C753FBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9E71B-7C3D-6D43-89A3-FD581C21DFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{77F46C8B-ABCF-4440-BB2C-15D05C1E26BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{77F46C8B-ABCF-4440-BB2C-15D05C1E26BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil2!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">final!$A$1:$D$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>DDN</t>
   </si>
@@ -73,6 +79,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>ddn</t>
+  </si>
+  <si>
+    <t>inclusion</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,15 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1040,6 +1057,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H31" xr:uid="{CFA96EDD-5BE1-4B4B-910C-719AB32BB0D4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1048,15 +1066,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC263F6-94D0-EF4E-8B50-EF5A06560692}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A14" activeCellId="1" sqref="G14:H24 A14:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="45.1640625" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1087,31 +1109,728 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34159</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40330</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41426</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44487</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>33532</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38677</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42290</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42290</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34520</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38793</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41610</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42900</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35956</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38286</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40647</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44732</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35080</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39562</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43627</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44802</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>33580</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40478</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44243</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44867</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>33644</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40688</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43084</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43084</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32362</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34365</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42418</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35343</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42298</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42879</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44881</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>36963</v>
+      </c>
+      <c r="C11" s="1">
+        <v>39897</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44659</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44659</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>36661</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41554</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43432</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45005</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>33433</v>
+      </c>
+      <c r="C13" s="1">
+        <v>39387</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40695</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44715</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>33719</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40756</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44614</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>35168</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41043</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45035</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>37137</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42739</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45034</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>33744</v>
+      </c>
+      <c r="C17" s="1">
+        <v>38338</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43627</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>36397</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41671</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43160</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34024</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41153</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>42454</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>32885</v>
+      </c>
+      <c r="C20" s="1">
+        <v>38513</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>40578</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35230</v>
+      </c>
+      <c r="C21" s="1">
+        <v>38755</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>44035</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>27744</v>
+      </c>
+      <c r="C22" s="1">
+        <v>33029</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40693</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>35551</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41081</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43287</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>33998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>39257</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44551</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>36087</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40750</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44413</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>34888</v>
+      </c>
+      <c r="C26" s="1">
+        <v>38353</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44649</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>29665</v>
+      </c>
+      <c r="C27" s="1">
+        <v>35055</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43808</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>32275</v>
+      </c>
+      <c r="C28" s="1">
+        <v>38644</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1">
+        <v>44743</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>36754</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41473</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>44743</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1">
+        <v>35517</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41631</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44943</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>32485</v>
+      </c>
+      <c r="C31" s="1">
+        <v>39092</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>41983</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H31" xr:uid="{4EC263F6-94D0-EF4E-8B50-EF5A06560692}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
+      <sortCondition ref="D2:D31"/>
+      <sortCondition ref="F2:F31"/>
+      <sortCondition ref="H2:H31"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B205B72-8F3A-6C42-B2E3-F045F7ADC926}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>34520</v>
       </c>
       <c r="C2" s="1">
-        <v>38793</v>
+        <v>41610</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41610</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42900</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1119,19 +1838,13 @@
         <v>33719</v>
       </c>
       <c r="C3" s="1">
-        <v>40756</v>
+        <v>44614</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>44614</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1139,19 +1852,13 @@
         <v>35168</v>
       </c>
       <c r="C4" s="1">
-        <v>41043</v>
+        <v>45035</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>45035</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1159,19 +1866,13 @@
         <v>37137</v>
       </c>
       <c r="C5" s="1">
-        <v>42739</v>
+        <v>45034</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>45034</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1179,25 +1880,13 @@
         <v>34159</v>
       </c>
       <c r="C6" s="1">
-        <v>40330</v>
+        <v>41426</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41426</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44487</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1210,14 +1899,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>43808</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1230,15 +1913,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1">
-        <v>44743</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1246,19 +1922,13 @@
         <v>36087</v>
       </c>
       <c r="C9" s="1">
-        <v>40750</v>
+        <v>44413</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44413</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1266,19 +1936,13 @@
         <v>33744</v>
       </c>
       <c r="C10" s="1">
-        <v>38338</v>
+        <v>43627</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>43627</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1291,14 +1955,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>44743</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1306,25 +1964,13 @@
         <v>33532</v>
       </c>
       <c r="C12" s="1">
-        <v>38677</v>
+        <v>42290</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>42290</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>42290</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1332,25 +1978,13 @@
         <v>35956</v>
       </c>
       <c r="C13" s="1">
-        <v>38286</v>
+        <v>40647</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40647</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44732</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1358,25 +1992,13 @@
         <v>35080</v>
       </c>
       <c r="C14" s="1">
-        <v>39562</v>
+        <v>43627</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43627</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>44802</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1389,14 +2011,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>44943</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1404,25 +2020,13 @@
         <v>33580</v>
       </c>
       <c r="C16" s="1">
-        <v>40478</v>
+        <v>44243</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44243</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>44867</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1435,14 +2039,8 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="G17" s="1">
-        <v>41983</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1450,25 +2048,13 @@
         <v>33644</v>
       </c>
       <c r="C18" s="1">
-        <v>40688</v>
+        <v>43084</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43084</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>43084</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1476,25 +2062,13 @@
         <v>32362</v>
       </c>
       <c r="C19" s="1">
-        <v>34365</v>
+        <v>42418</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>42418</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1502,19 +2076,13 @@
         <v>36397</v>
       </c>
       <c r="C20" s="1">
-        <v>41671</v>
+        <v>43160</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>43160</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1522,25 +2090,13 @@
         <v>35343</v>
       </c>
       <c r="C21" s="1">
-        <v>42298</v>
+        <v>42879</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>42879</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>44881</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1548,25 +2104,13 @@
         <v>36963</v>
       </c>
       <c r="C22" s="1">
-        <v>39897</v>
+        <v>44659</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44659</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>44659</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1574,25 +2118,13 @@
         <v>36661</v>
       </c>
       <c r="C23" s="1">
-        <v>41554</v>
+        <v>43432</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>43432</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>45005</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1600,19 +2132,13 @@
         <v>34024</v>
       </c>
       <c r="C24" s="1">
-        <v>41153</v>
+        <v>42454</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
-        <v>42454</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1620,19 +2146,13 @@
         <v>32885</v>
       </c>
       <c r="C25" s="1">
-        <v>38513</v>
+        <v>40578</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
-        <v>40578</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1640,19 +2160,13 @@
         <v>35230</v>
       </c>
       <c r="C26" s="1">
-        <v>38755</v>
+        <v>44035</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
-        <v>44035</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1660,19 +2174,13 @@
         <v>34888</v>
       </c>
       <c r="C27" s="1">
-        <v>38353</v>
+        <v>44649</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>44649</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1680,19 +2188,13 @@
         <v>27744</v>
       </c>
       <c r="C28" s="1">
-        <v>33029</v>
+        <v>40693</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>40693</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1700,19 +2202,13 @@
         <v>35551</v>
       </c>
       <c r="C29" s="1">
-        <v>41081</v>
+        <v>43287</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
-        <v>43287</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1720,19 +2216,13 @@
         <v>33998</v>
       </c>
       <c r="C30" s="1">
-        <v>39257</v>
+        <v>44551</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>44551</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1740,25 +2230,18 @@
         <v>33433</v>
       </c>
       <c r="C31" s="1">
-        <v>39387</v>
+        <v>40695</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>40695</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>44715</v>
-      </c>
-      <c r="H31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D31" xr:uid="{6B205B72-8F3A-6C42-B2E3-F045F7ADC926}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+      <sortCondition ref="A1:A31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>